--- a/NGCHM/Documentation/NG-CHM_App_Functionality_Comparison.xlsx
+++ b/NGCHM/Documentation/NG-CHM_App_Functionality_Comparison.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstucky\git\NG-CHM\NGCHM\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34399FA5-8B15-4110-BEA9-55D417713978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15160" yWindow="-16460" windowWidth="15140" windowHeight="20080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="111">
   <si>
     <t>Matrix Screen:</t>
   </si>
@@ -352,13 +358,16 @@
   </si>
   <si>
     <t>High Boundary  (bar/scatter)</t>
+  </si>
+  <si>
+    <t>Multiple "Flick" Data Layers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +387,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,34 +716,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="8" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="40.25" customHeight="1">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,7 +766,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,7 +774,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -781,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -802,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -823,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -841,7 +857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -857,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -873,7 +889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -886,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -899,7 +915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -915,71 +931,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="H12" s="1"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="C15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="C18" t="s">
-        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
@@ -992,9 +1005,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
@@ -1007,51 +1020,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9">
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" t="s">
-        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -1061,39 +1077,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="3"/>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -1103,52 +1118,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="C30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="C31" t="s">
-        <v>93</v>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -1158,37 +1174,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="C36" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>22</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="C37" t="s">
-        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
@@ -1198,9 +1214,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1210,42 +1226,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2"/>
+      <c r="I39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
-      <c r="C41" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>23</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="C42" t="s">
-        <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -1264,9 +1271,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -1285,42 +1292,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="C45" t="s">
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>27</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="C46" t="s">
-        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -1339,9 +1346,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -1360,113 +1367,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="H49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B51" s="2"/>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="C53" t="s">
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="G54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -1480,9 +1492,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -1496,9 +1508,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -1506,20 +1518,15 @@
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -1538,229 +1545,256 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="C60" t="s">
-        <v>36</v>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="C61" t="s">
-        <v>37</v>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="C62" t="s">
-        <v>108</v>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="C63" t="s">
-        <v>107</v>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="C64" t="s">
-        <v>106</v>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="C65" t="s">
-        <v>109</v>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="H66" s="1"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2"/>
+      <c r="J66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:10">
-      <c r="B68" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
-      <c r="C69" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
-      <c r="C70" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="C71" t="s">
-        <v>44</v>
-      </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="C72" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="C73" t="s">
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="C74" t="s">
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="3" t="s">
-        <v>46</v>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:10">
-      <c r="C76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="C77" t="s">
-        <v>48</v>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -1768,89 +1802,101 @@
       <c r="E77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="C78" t="s">
-        <v>49</v>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="C79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="C80" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="C81" t="s">
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="C82" t="s">
-        <v>53</v>
-      </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
-      <c r="C83" t="s">
-        <v>54</v>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
@@ -1858,15 +1904,17 @@
       <c r="E83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
-      <c r="C84" t="s">
-        <v>55</v>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
@@ -1874,15 +1922,17 @@
       <c r="E84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
-      <c r="C85" t="s">
-        <v>56</v>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
@@ -1890,15 +1940,17 @@
       <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
-      <c r="C86" t="s">
-        <v>53</v>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
@@ -1906,15 +1958,17 @@
       <c r="E86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
-      <c r="C87" t="s">
-        <v>57</v>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
@@ -1922,15 +1976,17 @@
       <c r="E87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
-      <c r="C88" t="s">
-        <v>58</v>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
@@ -1938,40 +1994,45 @@
       <c r="E88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="C90" t="s">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="C91" t="s">
-        <v>61</v>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
@@ -1984,12 +2045,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
@@ -2002,9 +2060,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
@@ -2017,9 +2078,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -2032,31 +2093,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="C96" t="s">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>66</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="C97" t="s">
-        <v>67</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>14</v>
@@ -2069,37 +2130,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>14</v>
@@ -2112,82 +2173,84 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="J102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:10">
-      <c r="C104" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>73</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="C105" t="s">
+      <c r="D105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>74</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="C106" t="s">
+      <c r="D106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>75</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="C107" t="s">
-        <v>76</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -2198,9 +2261,9 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -2211,45 +2274,58 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
         <v>78</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="C110" t="s">
+      <c r="D110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>79</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
